--- a/excel/sp1-0.xlsx
+++ b/excel/sp1-0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2224CCD-D0B3-6A43-A04F-1DA3EFD5C9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF38675C-1669-4742-A9EA-68A1E3397B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="600" windowWidth="27900" windowHeight="15380" xr2:uid="{E6B1DEC4-73FA-824E-91B5-020F8D4870A4}"/>
+    <workbookView xWindow="900" yWindow="600" windowWidth="27900" windowHeight="15380" xr2:uid="{E6B1DEC4-73FA-824E-91B5-020F8D4870A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>1萬</t>
     <rPh sb="1" eb="2">
@@ -297,7 +297,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -338,15 +338,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,15 +665,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EE7D7E-559B-B14E-97D7-B55EA6F4E5E7}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="6" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -683,8 +689,20 @@
       <c r="D1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,8 +715,20 @@
       <c r="D2" s="2">
         <v>0.188588976866852</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.11391280843340799</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.83806818181815801</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.20056429953360899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -711,8 +741,20 @@
       <c r="D3" s="2">
         <v>0.243310820494408</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.16071014156416699</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.785592739648311</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.26683363834960599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -725,8 +767,20 @@
       <c r="D4" s="2">
         <v>0.25366980906424402</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.16694671987677601</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.78193146417444204</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.27514784361733002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,8 +793,20 @@
       <c r="D5" s="2">
         <v>0.28929179602336302</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.20096792426169199</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.77771701982227204</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.31940038735753101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +819,20 @@
       <c r="D6" s="2">
         <v>0.30738251651793702</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.21241986086481901</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.79431267533791305</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.33519883761401398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +845,20 @@
       <c r="D7" s="2">
         <v>0.28931217445755297</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.198774791849995</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.796015180265643</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.31811288047934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -781,8 +871,20 @@
       <c r="D8" s="2">
         <v>0.240440732516606</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.166117188670762</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.756139154160969</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.27239218574266999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -795,8 +897,20 @@
       <c r="D9" s="2">
         <v>0.22552010330969799</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.146314831665149</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.79588200356363503</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.24718686586566499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -809,8 +923,20 @@
       <c r="D10" s="2">
         <v>0.18871065857792499</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.126837281687704</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.81704260651626703</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.219586124289124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -823,8 +949,20 @@
       <c r="D11" s="2">
         <v>0.190304145022961</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.123346320160979</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.80609960828201399</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.213954179175671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -837,8 +975,20 @@
       <c r="D12" s="2">
         <v>0.22644565625812399</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.15248294523419201</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.77719502719501199</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.25494631532606499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -851,8 +1001,20 @@
       <c r="D13" s="2">
         <v>0.257414064227245</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.17049915872125501</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.76152304609217103</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.27861790850277701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -865,8 +1027,20 @@
       <c r="D14" s="2">
         <v>0.28798534069937198</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.19863540937718599</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.77735177324386096</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.316417244902505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -879,8 +1053,20 @@
       <c r="D15" s="2">
         <v>0.30240193534127102</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.21420635773930999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.76569305662310005</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.33476154467445202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -893,8 +1079,20 @@
       <c r="D16" s="2">
         <v>0.29506261544846202</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.19752786361584601</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.76434233507992999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.31392782250350398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -907,8 +1105,20 @@
       <c r="D17" s="2">
         <v>0.24469426629309299</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.16413494497564399</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.77403437127784902</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.27083829480323202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -921,8 +1131,20 @@
       <c r="D18" s="2">
         <v>0.22048705061504001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.15120839714616499</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.79653679653678</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.25416758230451397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -935,8 +1157,20 @@
       <c r="D19" s="2">
         <v>0.18498209133014701</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.115614369866422</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.79221148379758899</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.20178105992564299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -949,8 +1183,20 @@
       <c r="D20" s="2">
         <v>0.19274368832562799</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.113074891236792</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.82558139534881303</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.198906730419532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -963,8 +1209,20 @@
       <c r="D21" s="2">
         <v>0.23348411072433101</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.15324334458192601</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.80247398389945401</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.25734344989908597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -977,8 +1235,20 @@
       <c r="D22" s="2">
         <v>0.24478362172443999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.164082825474891</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.78633646456019102</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.27151029070681998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -991,8 +1261,20 @@
       <c r="D23" s="2">
         <v>0.28486843781286803</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.200610664824978</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.76408694448289105</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.31778660675003501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1005,8 +1287,20 @@
       <c r="D24" s="2">
         <v>0.29805124143713402</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.21091234347048199</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.76459143968870602</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.330622546236436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1019,8 +1313,20 @@
       <c r="D25" s="2">
         <v>0.29030147462892503</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.19556505476890099</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.79879961806028099</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.31420523135672901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1033,8 +1339,20 @@
       <c r="D26" s="2">
         <v>0.24951307551862301</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.16585631349782201</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.76991746673402695</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.27291996295259202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1047,8 +1365,20 @@
       <c r="D27" s="2">
         <v>0.23159289102339201</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.152647278150633</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.80290252990780897</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.25652432717638501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1061,8 +1391,20 @@
       <c r="D28" s="2">
         <v>0.18946887341682001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.115816285918967</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.82764505119451504</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.203198100669753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1075,8 +1417,20 @@
       <c r="D29" s="2">
         <v>7.1431223307200295E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.65728997084767E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.83854166666659302</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7.0088880819126204E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1089,8 +1443,20 @@
       <c r="D30" s="2">
         <v>6.7837548731010305E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.81279847182424E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.84504657070272204</v>
+      </c>
+      <c r="H30" s="3">
+        <v>7.2963883600452598E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1103,8 +1469,20 @@
       <c r="D31" s="2">
         <v>5.8803110240516203E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3.0823065182593E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.83636363636355104</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5.9454995864324303E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1117,8 +1495,20 @@
       <c r="D32" s="2">
         <v>5.73418380565065E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.1197547982193499E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.82768635043554395</v>
+      </c>
+      <c r="H32" s="3">
+        <v>6.0128696501314798E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1131,8 +1521,20 @@
       <c r="D33" s="2">
         <v>7.7771901983138297E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.12311932927528E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.827824750192096</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7.8550069278394294E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1145,8 +1547,20 @@
       <c r="D34" s="2">
         <v>8.0665859998953995E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.1547939930689101E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.82681992337158405</v>
+      </c>
+      <c r="H34" s="3">
+        <v>7.9120073318110801E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1158,6 +1572,18 @@
       </c>
       <c r="D35" s="2">
         <v>8.0134752526451497E-2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.45232304077171E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.808383233532873</v>
+      </c>
+      <c r="H35" s="3">
+        <v>8.4398077589447507E-2</v>
       </c>
     </row>
   </sheetData>
